--- a/1_semester/Moduls/ПУ/Модуль 1/import/Product.xlsx
+++ b/1_semester/Moduls/ПУ/Модуль 1/import/Product.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\ПУ\Модуль 1\import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83115C1-42CA-4215-AA70-4CB742268452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Product" sheetId="2" r:id="rId1"/>
+    <sheet name="Product" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -28,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>А112Т4</t>
   </si>
   <si>
-    <t>шт.</t>
-  </si>
-  <si>
     <t>1.jpg</t>
   </si>
   <si>
@@ -273,16 +264,16 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>FK_ProductName</t>
+  </si>
+  <si>
+    <t>FK_Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -314,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -337,22 +328,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -361,9 +341,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -426,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -478,7 +455,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -672,70 +649,68 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3BA720-CFCE-40C9-83D5-26C10267275A}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -743,12 +718,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -770,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -781,12 +756,12 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
@@ -808,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -817,12 +792,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -844,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -853,12 +828,12 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
@@ -880,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -889,12 +864,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
@@ -916,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -927,12 +902,12 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -954,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -963,12 +938,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -990,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1001,12 +976,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -1028,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1037,12 +1012,12 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2">
@@ -1064,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -1073,12 +1048,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
@@ -1100,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1111,12 +1086,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
@@ -1138,10 +1113,10 @@
         <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1149,12 +1124,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
@@ -1176,10 +1151,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1187,12 +1162,12 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
@@ -1214,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1223,12 +1198,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
@@ -1250,10 +1225,10 @@
         <v>8</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1261,12 +1236,12 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2">
@@ -1288,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -1297,12 +1272,12 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
@@ -1324,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1335,12 +1310,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
@@ -1362,10 +1337,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1373,12 +1348,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
@@ -1400,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -1409,12 +1384,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
@@ -1436,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -1445,12 +1420,12 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
@@ -1472,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -1481,12 +1456,12 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2">
@@ -1508,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -1517,12 +1492,12 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2">
@@ -1544,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2"/>
     </row>
@@ -1553,12 +1528,12 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2">
@@ -1580,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L24" s="2"/>
     </row>
@@ -1589,12 +1564,12 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2">
@@ -1616,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="2"/>
     </row>
@@ -1625,12 +1600,12 @@
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2">
@@ -1652,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -1661,12 +1636,12 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
@@ -1688,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -1697,12 +1672,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
@@ -1724,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -1733,12 +1708,12 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2">
@@ -1760,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -1769,12 +1744,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
@@ -1796,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -1810,7 +1785,7 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2">
@@ -1832,19 +1807,13 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="G32" s="4"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
-    <sortCondition ref="B1:B32"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>